--- a/QuantLibXL/Data2/XLS/HKD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCONBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15030" windowHeight="7785" activeTab="3"/>
+    <workbookView visibility="hidden" xWindow="19005" yWindow="-15" windowWidth="19050" windowHeight="11445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -530,9 +530,6 @@
     <t>Following</t>
   </si>
   <si>
-    <t>Annual</t>
-  </si>
-  <si>
     <t>Modified Following</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Business Day Convention</t>
   </si>
   <si>
-    <t>Freq</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -570,6 +564,24 @@
   </si>
   <si>
     <t>HkdHiborON</t>
+  </si>
+  <si>
+    <t>settl days</t>
+  </si>
+  <si>
+    <t>fix days</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>bdc</t>
+  </si>
+  <si>
+    <t>eom</t>
+  </si>
+  <si>
+    <t>dc</t>
   </si>
 </sst>
 </file>
@@ -590,7 +602,7 @@
     <numFmt numFmtId="174" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="175" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,6 +717,12 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1195,7 +1213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1207,8 +1225,9 @@
     </xf>
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1475,6 +1494,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,10 +1538,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="3"/>
     <cellStyle name="Migliaia_AZIONI" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="1"/>
     <cellStyle name="Normale_AZIONI" xfId="5"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -1838,23 +1870,23 @@
     <row r="1" spans="1:30" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov 12 2013 12:02:30</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="H2" s="125" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="H2" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="127"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1903,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="81">
-        <v>41600.746608796297</v>
+        <v>41606.781851851854</v>
       </c>
       <c r="K4" s="86"/>
       <c r="L4" s="1"/>
@@ -1976,7 +2008,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="88"/>
       <c r="I6" s="87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6" s="81" t="b">
         <v>1</v>
@@ -2123,7 +2155,7 @@
       </c>
       <c r="D10" s="14" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D17),NA(),D15:E15),IF(ISERROR(D17),NA(),D16:E16),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYCON#0001</v>
+        <v>HKDYCON#0000</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2134,7 +2166,7 @@
       </c>
       <c r="J10" s="89" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K10" s="86"/>
       <c r="L10" s="1"/>
@@ -2205,8 +2237,8 @@
         <v>9</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
-        <v>_HKDYCON</v>
+        <f>Currency&amp;"YC"&amp;IndexTenor</f>
+        <v>HKDYCON</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
@@ -2586,7 +2618,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="29">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="D22" s="30">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2624,11 +2656,11 @@
       <c r="B23" s="2"/>
       <c r="C23" s="31">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>41969</v>
+        <v>41975</v>
       </c>
       <c r="D23" s="10">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.99797221445819706</v>
+        <v>0.99800081367082882</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
@@ -2697,14 +2729,8 @@
     <row r="25" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="121" t="str">
-        <f>UPPER(Currency)&amp;IndexTenor</f>
-        <v>HKDON</v>
-      </c>
-      <c r="D25" s="121" t="b">
-        <f>_xll.qlRelinkableHandleLinkTo(C25,YieldCurve)</f>
-        <v>1</v>
-      </c>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="35"/>
       <c r="F25" s="36"/>
       <c r="G25" s="1"/>
@@ -4107,10 +4133,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4124,14 +4150,17 @@
     <col min="10" max="10" width="21.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33" style="38" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" style="38" customWidth="1"/>
     <col min="15" max="15" width="4.28515625" style="38" customWidth="1"/>
     <col min="16" max="17" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="38"/>
+    <col min="18" max="18" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="38"/>
+    <col min="20" max="20" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="117"/>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -4147,7 +4176,7 @@
       <c r="M1" s="115"/>
       <c r="N1" s="114"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="105"/>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
@@ -4171,38 +4200,38 @@
       <c r="M2" s="106"/>
       <c r="N2" s="97"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="105"/>
       <c r="B3" s="112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="112"/>
       <c r="E3" s="112"/>
       <c r="F3" s="112" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G3" s="112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3" s="111" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="110">
+      <c r="L3" s="110" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L25),SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
-        <v>21</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="98" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
@@ -4211,8 +4240,23 @@
       <c r="N3" s="120" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
@@ -4225,7 +4269,7 @@
       <c r="J4" s="106"/>
       <c r="K4" s="106"/>
       <c r="L4" s="109" t="str">
-        <f>_xll.qlEonia(,,Permanent,Trigger,ObjectOverwrite)</f>
+        <f>_xll.qlOvernightIndex(,,P4,Currency,Q4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
         <v>obj_000f8#0000</v>
       </c>
       <c r="M4" s="108" t="str">
@@ -4235,8 +4279,23 @@
       <c r="N4" s="120" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="124" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="107"/>
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
@@ -4254,11 +4313,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="105"/>
       <c r="B6" s="104"/>
       <c r="C6" s="103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="104" t="s">
         <v>90</v>
@@ -4266,8 +4325,8 @@
       <c r="E6" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="102" t="s">
-        <v>108</v>
+      <c r="F6" s="102">
+        <v>1</v>
       </c>
       <c r="G6" s="102" t="s">
         <v>107</v>
@@ -4288,7 +4347,7 @@
         <v>HKD_YCONRH_OISSW</v>
       </c>
       <c r="L6" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K6,F6,C6,J6,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OISSW#0000</v>
       </c>
       <c r="M6" s="98" t="str">
@@ -4300,14 +4359,14 @@
       </c>
       <c r="P6" s="92">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q6" s="92">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="105"/>
       <c r="B7" s="104"/>
       <c r="C7" s="103" t="s">
@@ -4320,8 +4379,8 @@
         <f t="shared" ref="E7:E24" si="3">C7</f>
         <v>2W</v>
       </c>
-      <c r="F7" s="102" t="s">
-        <v>108</v>
+      <c r="F7" s="102">
+        <v>1</v>
       </c>
       <c r="G7" s="102" t="s">
         <v>107</v>
@@ -4342,7 +4401,7 @@
         <v>HKD_YCONRH_OIS2W</v>
       </c>
       <c r="L7" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K7,F7,C7,J7,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="98" t="str">
@@ -4354,14 +4413,14 @@
       </c>
       <c r="P7" s="92">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q7" s="92">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="105"/>
       <c r="B8" s="104"/>
       <c r="C8" s="103" t="s">
@@ -4374,8 +4433,8 @@
         <f t="shared" si="3"/>
         <v>3W</v>
       </c>
-      <c r="F8" s="102" t="s">
-        <v>108</v>
+      <c r="F8" s="102">
+        <v>1</v>
       </c>
       <c r="G8" s="102" t="s">
         <v>107</v>
@@ -4396,7 +4455,7 @@
         <v>HKD_YCONRH_OIS3W</v>
       </c>
       <c r="L8" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K8,F8,C8,J8,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="98" t="str">
@@ -4408,14 +4467,14 @@
       </c>
       <c r="P8" s="92">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q8" s="92">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="105"/>
       <c r="B9" s="104"/>
       <c r="C9" s="103" t="s">
@@ -4428,11 +4487,11 @@
         <f t="shared" si="3"/>
         <v>1M</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="102">
+        <v>1</v>
+      </c>
+      <c r="G9" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4450,7 +4509,7 @@
         <v>HKD_YCONRH_OIS1M</v>
       </c>
       <c r="L9" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K9,F9,C9,J9,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="98" t="str">
@@ -4462,14 +4521,14 @@
       </c>
       <c r="P9" s="92">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q9" s="92">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="105"/>
       <c r="B10" s="104"/>
       <c r="C10" s="103" t="s">
@@ -4482,11 +4541,11 @@
         <f t="shared" si="3"/>
         <v>2M</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="102">
+        <v>1</v>
+      </c>
+      <c r="G10" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G10" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H10" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4504,7 +4563,7 @@
         <v>HKD_YCONRH_OIS2M</v>
       </c>
       <c r="L10" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K10,F10,C10,J10,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="98" t="str">
@@ -4516,14 +4575,14 @@
       </c>
       <c r="P10" s="92">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q10" s="92">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="105"/>
       <c r="B11" s="104"/>
       <c r="C11" s="103" t="s">
@@ -4536,11 +4595,11 @@
         <f t="shared" si="3"/>
         <v>3M</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="102">
+        <v>1</v>
+      </c>
+      <c r="G11" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4558,7 +4617,7 @@
         <v>HKD_YCONRH_OIS3M</v>
       </c>
       <c r="L11" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K11,F11,C11,J11,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="98" t="str">
@@ -4570,14 +4629,14 @@
       </c>
       <c r="P11" s="92">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q11" s="92">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="105"/>
       <c r="B12" s="104"/>
       <c r="C12" s="103" t="s">
@@ -4590,11 +4649,11 @@
         <f t="shared" si="3"/>
         <v>4M</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="102">
+        <v>1</v>
+      </c>
+      <c r="G12" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H12" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4612,7 +4671,7 @@
         <v>HKD_YCONRH_OIS4M</v>
       </c>
       <c r="L12" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K12,F12,C12,J12,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="98" t="str">
@@ -4624,14 +4683,14 @@
       </c>
       <c r="P12" s="92">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q12" s="92">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="105"/>
       <c r="B13" s="104"/>
       <c r="C13" s="103" t="s">
@@ -4644,11 +4703,11 @@
         <f t="shared" si="3"/>
         <v>5M</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="102">
+        <v>1</v>
+      </c>
+      <c r="G13" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G13" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H13" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4725,7 @@
         <v>HKD_YCONRH_OIS5M</v>
       </c>
       <c r="L13" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K13,F13,C13,J13,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="98" t="str">
@@ -4678,14 +4737,14 @@
       </c>
       <c r="P13" s="92">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q13" s="92">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="105"/>
       <c r="B14" s="104"/>
       <c r="C14" s="103" t="s">
@@ -4698,11 +4757,11 @@
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
-      <c r="F14" s="102" t="s">
+      <c r="F14" s="102">
+        <v>1</v>
+      </c>
+      <c r="G14" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G14" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4720,7 +4779,7 @@
         <v>HKD_YCONRH_OIS6M</v>
       </c>
       <c r="L14" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K14,F14,C14,J14,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="98" t="str">
@@ -4732,14 +4791,14 @@
       </c>
       <c r="P14" s="92">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q14" s="92">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="105"/>
       <c r="B15" s="104"/>
       <c r="C15" s="103" t="s">
@@ -4752,11 +4811,11 @@
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="102">
+        <v>1</v>
+      </c>
+      <c r="G15" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4774,7 +4833,7 @@
         <v>HKD_YCONRH_OIS7M</v>
       </c>
       <c r="L15" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K15,F15,C15,J15,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="98" t="str">
@@ -4786,14 +4845,14 @@
       </c>
       <c r="P15" s="92">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q15" s="92">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="105"/>
       <c r="B16" s="104"/>
       <c r="C16" s="103" t="s">
@@ -4806,11 +4865,11 @@
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="102">
+        <v>1</v>
+      </c>
+      <c r="G16" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4828,7 +4887,7 @@
         <v>HKD_YCONRH_OIS8M</v>
       </c>
       <c r="L16" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K16,F16,C16,J16,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="98" t="str">
@@ -4840,11 +4899,11 @@
       </c>
       <c r="P16" s="92">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q16" s="92">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -4860,11 +4919,11 @@
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="102">
+        <v>1</v>
+      </c>
+      <c r="G17" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4882,7 +4941,7 @@
         <v>HKD_YCONRH_OIS9M</v>
       </c>
       <c r="L17" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K17,F17,C17,J17,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="M17" s="98" t="str">
@@ -4894,11 +4953,11 @@
       </c>
       <c r="P17" s="92">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q17" s="92">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -4914,11 +4973,11 @@
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F18" s="102">
+        <v>1</v>
+      </c>
+      <c r="G18" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4936,7 +4995,7 @@
         <v>HKD_YCONRH_OIS10M</v>
       </c>
       <c r="L18" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K18,F18,C18,J18,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="98" t="str">
@@ -4948,11 +5007,11 @@
       </c>
       <c r="P18" s="92">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q18" s="92">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41908</v>
+        <v>41914</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -4968,11 +5027,11 @@
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="102">
+        <v>1</v>
+      </c>
+      <c r="G19" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="102" t="str">
         <f t="shared" si="0"/>
@@ -4990,7 +5049,7 @@
         <v>HKD_YCONRH_OIS11M</v>
       </c>
       <c r="L19" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K19,F19,C19,J19,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="98" t="str">
@@ -5002,11 +5061,11 @@
       </c>
       <c r="P19" s="92">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q19" s="92">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -5022,11 +5081,11 @@
         <f t="shared" si="3"/>
         <v>1Y</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="102">
+        <v>1</v>
+      </c>
+      <c r="G20" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="102" t="str">
         <f t="shared" si="0"/>
@@ -5044,7 +5103,7 @@
         <v>HKD_YCONRH_OIS1Y</v>
       </c>
       <c r="L20" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K20,F20,C20,J20,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="98" t="str">
@@ -5056,11 +5115,11 @@
       </c>
       <c r="P20" s="92">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q20" s="92">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41969</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -5076,11 +5135,11 @@
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="102">
+        <v>1</v>
+      </c>
+      <c r="G21" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G21" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="102" t="str">
         <f t="shared" si="0"/>
@@ -5098,7 +5157,7 @@
         <v>HKD_YCONRH_OIS15M</v>
       </c>
       <c r="L21" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K21,F21,C21,J21,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="M21" s="98" t="str">
@@ -5110,11 +5169,11 @@
       </c>
       <c r="P21" s="92">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q21" s="92">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>42061</v>
+        <v>42065</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -5130,11 +5189,11 @@
         <f t="shared" si="3"/>
         <v>18M</v>
       </c>
-      <c r="F22" s="102" t="s">
+      <c r="F22" s="102">
+        <v>1</v>
+      </c>
+      <c r="G22" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="102" t="str">
         <f t="shared" si="0"/>
@@ -5152,7 +5211,7 @@
         <v>HKD_YCONRH_OIS18M</v>
       </c>
       <c r="L22" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K22,F22,C22,J22,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="M22" s="98" t="str">
@@ -5164,11 +5223,11 @@
       </c>
       <c r="P22" s="92">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q22" s="92">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -5184,11 +5243,11 @@
         <f t="shared" si="3"/>
         <v>21M</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="102">
+        <v>1</v>
+      </c>
+      <c r="G23" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H23" s="102" t="str">
         <f t="shared" si="0"/>
@@ -5206,7 +5265,7 @@
         <v>HKD_YCONRH_OIS21M</v>
       </c>
       <c r="L23" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K23,F23,C23,J23,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="M23" s="98" t="str">
@@ -5218,11 +5277,11 @@
       </c>
       <c r="P23" s="92">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q23" s="92">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42242</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -5238,11 +5297,11 @@
         <f t="shared" si="3"/>
         <v>2Y</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="102">
+        <v>1</v>
+      </c>
+      <c r="G24" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="102" t="str">
         <f t="shared" si="0"/>
@@ -5260,7 +5319,7 @@
         <v>HKD_YCONRH_OIS2Y</v>
       </c>
       <c r="L24" s="99" t="str">
-        <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlOISRateHelper(K24,F24,C24,J24,$L$4,,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="M24" s="98" t="str">
@@ -5272,11 +5331,11 @@
       </c>
       <c r="P24" s="92">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="Q24" s="92">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42334</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5288,37 +5347,40 @@
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
       <c r="H25" s="95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I25" s="95"/>
       <c r="J25" s="95" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L25" s="94" t="str">
         <f>_xll.qlDepositRateHelper(K25,J25,H25,Permanent,Trigger)</f>
-        <v>HkdHiborONLastFixing#0008</v>
+        <v>HkdHiborONLastFixing#0000</v>
       </c>
       <c r="M25" s="94"/>
       <c r="N25" s="93"/>
       <c r="P25" s="92">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="Q25" s="92">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>41603</v>
+        <v>41610</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G24">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Month End Reference,Unadjusted Month End,Unadjusted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F24">
-      <formula1>"Once,Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4">
+      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
+      <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5333,7 +5395,7 @@
   <dimension ref="B1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5356,11 +5418,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="60" t="s">
         <v>18</v>
       </c>
@@ -5393,7 +5455,7 @@
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="str">
         <f>HKD_YCRH_Swaps_ON!L25</f>
-        <v>HkdHiborONLastFixing#0008</v>
+        <v>HkdHiborONLastFixing#0000</v>
       </c>
       <c r="F2" s="63" t="str">
         <f>_xll.ohObjectPropertyValues(E2,"Rate")</f>
@@ -5401,7 +5463,7 @@
       </c>
       <c r="G2" s="64">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>7.1330000000000005E-4</v>
+        <v>7.428999999999999E-4</v>
       </c>
       <c r="H2" s="64"/>
       <c r="I2" s="65" t="b">
@@ -5415,11 +5477,11 @@
       </c>
       <c r="L2" s="66">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="M2" s="67">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41603</v>
+        <v>41610</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -5529,11 +5591,11 @@
       </c>
       <c r="L5" s="66">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M5" s="67">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41611</v>
+        <v>41617</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -5568,11 +5630,11 @@
       </c>
       <c r="L6" s="66">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M6" s="67">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41618</v>
+        <v>41624</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -5607,11 +5669,11 @@
       </c>
       <c r="L7" s="66">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M7" s="67">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41625</v>
+        <v>41631</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -5646,11 +5708,11 @@
       </c>
       <c r="L8" s="66">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M8" s="67">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41635</v>
+        <v>41641</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -5685,11 +5747,11 @@
       </c>
       <c r="L9" s="66">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M9" s="67">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41666</v>
+        <v>41673</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -5724,11 +5786,11 @@
       </c>
       <c r="L10" s="66">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M10" s="67">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41696</v>
+        <v>41701</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -5763,11 +5825,11 @@
       </c>
       <c r="L11" s="66">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M11" s="67">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41724</v>
+        <v>41731</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -5802,11 +5864,11 @@
       </c>
       <c r="L12" s="66">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M12" s="67">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -5841,11 +5903,11 @@
       </c>
       <c r="L13" s="66">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M13" s="67">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41785</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -5880,11 +5942,11 @@
       </c>
       <c r="L14" s="66">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M14" s="67">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41816</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -5919,11 +5981,11 @@
       </c>
       <c r="L15" s="66">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M15" s="67">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -5958,11 +6020,11 @@
       </c>
       <c r="L16" s="66">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M16" s="67">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
@@ -5997,11 +6059,11 @@
       </c>
       <c r="L17" s="66">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M17" s="67">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41908</v>
+        <v>41914</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -6036,11 +6098,11 @@
       </c>
       <c r="L18" s="66">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M18" s="67">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41939</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -6075,11 +6137,11 @@
       </c>
       <c r="L19" s="66">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M19" s="67">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41969</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -6117,11 +6179,11 @@
       </c>
       <c r="L20" s="66">
         <f>_xll.qlRateHelperEarliestDate($E20,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M20" s="67">
         <f>_xll.qlRateHelperLatestDate($E20,Trigger)</f>
-        <v>42061</v>
+        <v>42065</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -6159,11 +6221,11 @@
       </c>
       <c r="L21" s="66">
         <f>_xll.qlRateHelperEarliestDate($E21,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M21" s="67">
         <f>_xll.qlRateHelperLatestDate($E21,Trigger)</f>
-        <v>42150</v>
+        <v>42157</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -6201,11 +6263,11 @@
       </c>
       <c r="L22" s="66">
         <f>_xll.qlRateHelperEarliestDate($E22,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M22" s="67">
         <f>_xll.qlRateHelperLatestDate($E22,Trigger)</f>
-        <v>42242</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -6243,11 +6305,11 @@
       </c>
       <c r="L23" s="73">
         <f>_xll.qlRateHelperEarliestDate($E23,Trigger)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="M23" s="74">
         <f>_xll.qlRateHelperLatestDate($E23,Trigger)</f>
-        <v>42334</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -8025,10 +8087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="136"/>
       <c r="D1" s="39" t="s">
         <v>19</v>
       </c>
@@ -8068,14 +8130,14 @@
       </c>
       <c r="G2" s="56">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H2" s="57">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41635</v>
+        <v>41641</v>
       </c>
       <c r="I2" s="42">
-        <v>0.99995282681319675</v>
+        <v>0.99995435148363732</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8098,18 +8160,18 @@
       </c>
       <c r="G3" s="56">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H3" s="57">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41666</v>
+        <v>41673</v>
       </c>
       <c r="I3" s="42">
-        <v>0.99987533981000543</v>
+        <v>0.99987600836154056</v>
       </c>
       <c r="J3" s="38">
         <f>H3-H2</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8132,18 +8194,18 @@
       </c>
       <c r="G4" s="56">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H4" s="57">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41696</v>
+        <v>41701</v>
       </c>
       <c r="I4" s="42">
-        <v>0.99976593417225246</v>
+        <v>0.99977248278758057</v>
       </c>
       <c r="J4" s="38">
         <f>H4-H3</f>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8166,18 +8228,18 @@
       </c>
       <c r="G5" s="56">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H5" s="57">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41724</v>
+        <v>41731</v>
       </c>
       <c r="I5" s="42">
-        <v>0.99959604192034313</v>
+        <v>0.9995991665338575</v>
       </c>
       <c r="J5" s="38">
         <f>H5-H4</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8201,24 +8263,24 @@
       </c>
       <c r="G6" s="56">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H6" s="57">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41757</v>
+        <v>41761</v>
       </c>
       <c r="I6" s="42">
-        <v>0.99957106263551743</v>
+        <v>0.9995832890607742</v>
       </c>
       <c r="J6" s="38">
         <f>H6-H5</f>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_RateHelpersSelected#0001</v>
+        <v>HKD_YCONRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -8237,18 +8299,18 @@
       </c>
       <c r="G7" s="56">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H7" s="57">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41785</v>
+        <v>41792</v>
       </c>
       <c r="I7" s="42">
-        <v>0.99944313276007402</v>
+        <v>0.99944862457313077</v>
       </c>
       <c r="J7" s="38">
         <f>H7-H6</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8265,14 +8327,14 @@
       </c>
       <c r="G8" s="56">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H8" s="57">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="I8" s="42">
-        <v>0.99870837878586383</v>
+        <v>0.99872228149345887</v>
       </c>
       <c r="J8" s="38">
         <f t="shared" ref="J8:J37" si="0">H8-H7</f>
@@ -8293,18 +8355,18 @@
       </c>
       <c r="G9" s="56">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41604</v>
+        <v>41610</v>
       </c>
       <c r="H9" s="57">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41969</v>
+        <v>41975</v>
       </c>
       <c r="I9" s="42">
-        <v>0.99797221445819706</v>
+        <v>0.99800081367082882</v>
       </c>
       <c r="J9" s="38">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YCONBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCONBootstrapping.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="19005" yWindow="-15" windowWidth="19050" windowHeight="11445" activeTab="3"/>
+    <workbookView xWindow="19005" yWindow="-15" windowWidth="19050" windowHeight="11445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="HKD_YCRH_Swaps_ON" sheetId="6" r:id="rId2"/>
+    <sheet name="OIS" sheetId="6" r:id="rId2"/>
     <sheet name="RateHelpers" sheetId="2" r:id="rId3"/>
     <sheet name="Selected" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -21,7 +21,7 @@
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!#REF!</definedName>
     <definedName name="Discounting2">'General Settings'!#REF!</definedName>
-    <definedName name="DiscountingCurve" localSheetId="1">HKD_YCRH_Swaps_ON!$L$2</definedName>
+    <definedName name="DiscountingCurve" localSheetId="1">OIS!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$J$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$11</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
@@ -1935,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="81">
-        <v>41606.781851851854</v>
+        <v>41607.530034722222</v>
       </c>
       <c r="K4" s="86"/>
       <c r="L4" s="1"/>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="J10" s="89" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
+        <v>N:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K10" s="86"/>
       <c r="L10" s="1"/>
@@ -4136,7 +4136,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="M3" s="98" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YCONRH_Swaps.xml</v>
       </c>
       <c r="N3" s="120" t="s">
         <v>76</v>
@@ -5454,7 +5454,7 @@
       <c r="C2" s="62"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L25</f>
+        <f>OIS!L25</f>
         <v>HkdHiborONLastFixing#0000</v>
       </c>
       <c r="F2" s="63" t="str">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="G2" s="64">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>7.428999999999999E-4</v>
+        <v>6.8570000000000002E-4</v>
       </c>
       <c r="H2" s="64"/>
       <c r="I2" s="65" t="b">
@@ -5564,7 +5564,7 @@
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L6</f>
+        <f>OIS!L6</f>
         <v>HKD_YCONRH_OISSW#0000</v>
       </c>
       <c r="F5" s="63" t="e">
@@ -5603,7 +5603,7 @@
       <c r="C6" s="62"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L7</f>
+        <f>OIS!L7</f>
         <v>HKD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="F6" s="63" t="e">
@@ -5642,7 +5642,7 @@
       <c r="C7" s="62"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L8</f>
+        <f>OIS!L8</f>
         <v>HKD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="F7" s="63" t="e">
@@ -5681,7 +5681,7 @@
       <c r="C8" s="62"/>
       <c r="D8" s="63"/>
       <c r="E8" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L9</f>
+        <f>OIS!L9</f>
         <v>HKD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="F8" s="63" t="e">
@@ -5720,7 +5720,7 @@
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L10</f>
+        <f>OIS!L10</f>
         <v>HKD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="F9" s="63" t="e">
@@ -5759,7 +5759,7 @@
       <c r="C10" s="62"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L11</f>
+        <f>OIS!L11</f>
         <v>HKD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="F10" s="63" t="e">
@@ -5798,7 +5798,7 @@
       <c r="C11" s="62"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L12</f>
+        <f>OIS!L12</f>
         <v>HKD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="F11" s="63" t="e">
@@ -5837,7 +5837,7 @@
       <c r="C12" s="62"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L13</f>
+        <f>OIS!L13</f>
         <v>HKD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="F12" s="63" t="e">
@@ -5876,7 +5876,7 @@
       <c r="C13" s="62"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L14</f>
+        <f>OIS!L14</f>
         <v>HKD_YCONRH_OIS6M#0000</v>
       </c>
       <c r="F13" s="63" t="e">
@@ -5915,7 +5915,7 @@
       <c r="C14" s="62"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L15</f>
+        <f>OIS!L15</f>
         <v>HKD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="F14" s="63" t="e">
@@ -5954,7 +5954,7 @@
       <c r="C15" s="62"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L16</f>
+        <f>OIS!L16</f>
         <v>HKD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="F15" s="63" t="e">
@@ -5993,7 +5993,7 @@
       <c r="C16" s="62"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L17</f>
+        <f>OIS!L17</f>
         <v>HKD_YCONRH_OIS9M#0000</v>
       </c>
       <c r="F16" s="63" t="e">
@@ -6032,7 +6032,7 @@
       <c r="C17" s="62"/>
       <c r="D17" s="63"/>
       <c r="E17" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L18</f>
+        <f>OIS!L18</f>
         <v>HKD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="F17" s="63" t="e">
@@ -6071,7 +6071,7 @@
       <c r="C18" s="62"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L19</f>
+        <f>OIS!L19</f>
         <v>HKD_YCONRH_OIS11M#0000</v>
       </c>
       <c r="F18" s="63" t="e">
@@ -6110,7 +6110,7 @@
       <c r="C19" s="62"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L20</f>
+        <f>OIS!L20</f>
         <v>HKD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="F19" s="63" t="e">
@@ -6152,7 +6152,7 @@
       <c r="C20" s="62"/>
       <c r="D20" s="63"/>
       <c r="E20" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L21</f>
+        <f>OIS!L21</f>
         <v>HKD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="F20" s="63" t="e">
@@ -6194,7 +6194,7 @@
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L22</f>
+        <f>OIS!L22</f>
         <v>HKD_YCONRH_OIS18M#0000</v>
       </c>
       <c r="F21" s="63" t="e">
@@ -6236,7 +6236,7 @@
       <c r="C22" s="62"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63" t="str">
-        <f>HKD_YCRH_Swaps_ON!L23</f>
+        <f>OIS!L23</f>
         <v>HKD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="F22" s="63" t="e">
@@ -6278,7 +6278,7 @@
       <c r="C23" s="69"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70" t="str">
-        <f>HKD_YCRH_Swaps_ON!L24</f>
+        <f>OIS!L24</f>
         <v>HKD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="F23" s="70" t="e">
